--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value885.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value885.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.314157885269297</v>
+        <v>3.151151180267334</v>
       </c>
       <c r="B1">
-        <v>2.473732103977174</v>
+        <v>2.257282733917236</v>
       </c>
       <c r="C1">
-        <v>3.122972523961904</v>
+        <v>1.835969567298889</v>
       </c>
       <c r="D1">
-        <v>3.594618961092003</v>
+        <v>1.767743349075317</v>
       </c>
       <c r="E1">
-        <v>1.1337314091354</v>
+        <v>1.623548746109009</v>
       </c>
     </row>
   </sheetData>
